--- a/LotacaoProfessores.xlsx
+++ b/LotacaoProfessores.xlsx
@@ -721,7 +721,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Professor 6</t>
+          <t>Professor 11</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Professor 4</t>
+          <t>Professor 6</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Professor 7</t>
+          <t>Professor 4</t>
         </is>
       </c>
     </row>
